--- a/pnj_incsta.xlsx
+++ b/pnj_incsta.xlsx
@@ -1,37 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dungnguyen/Desktop/Data Science off/Python Programming/3. Publication/DA3_finance_stock_scraping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E493F2D-47C7-6448-9D31-6E4E0E02AE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-33360" yWindow="1660" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>1. Doanh thu bán hàng và cung cấp dịch vụ</t>
+  </si>
+  <si>
+    <t>2. Các khoản giảm trừ doanh thu</t>
+  </si>
+  <si>
+    <t>3. Doanh thu thuần về bán hàng và cung cấp dịch vụ (10 = 01 - 02)</t>
+  </si>
+  <si>
+    <t>4. Giá vốn hàng bán</t>
+  </si>
+  <si>
+    <t>5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ(20=10-11)</t>
+  </si>
+  <si>
+    <t>6. Doanh thu hoạt động tài chính</t>
+  </si>
+  <si>
+    <t>7. Chi phí tài chính</t>
+  </si>
+  <si>
+    <t>- Trong đó: Chi phí lãi vay</t>
+  </si>
+  <si>
+    <t>8. Phần lãi lỗ trong công ty liên doanh, liên kết</t>
+  </si>
+  <si>
+    <t>9. Chi phí bán hàng</t>
+  </si>
+  <si>
+    <t>10. Chi phí quản lý doanh nghiệp</t>
+  </si>
+  <si>
+    <t>11. Lợi nhuận thuần từ hoạt động kinh doanh{30=20+(21-22) + 24 - (25+26)}</t>
+  </si>
+  <si>
+    <t>12. Thu nhập khác</t>
+  </si>
+  <si>
+    <t>13. Chi phí khác</t>
+  </si>
+  <si>
+    <t>14. Lợi nhuận khác(40=31-32)</t>
+  </si>
+  <si>
+    <t>15. Tổng lợi nhuận kế toán trước thuế(50=30+40)</t>
+  </si>
+  <si>
+    <t>16. Chi phí thuế TNDN hiện hành</t>
+  </si>
+  <si>
+    <t>17. Chi phí thuế TNDN hoãn lại</t>
+  </si>
+  <si>
+    <t>18. Lợi nhuận sau thuế thu nhập doanh nghiệp(60=50-51-52)</t>
+  </si>
+  <si>
+    <t>19. Lợi nhuận sau thuế công ty mẹ</t>
+  </si>
+  <si>
+    <t>20. Lợi nhuận sau thuế công ty mẹ không kiểm soát</t>
+  </si>
+  <si>
+    <t>21. Lãi cơ bản trên cổ phiếu(*)</t>
+  </si>
+  <si>
+    <t>22. Lãi suy giảm trên cổ phiếu (*)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$VND]\ #,##0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +130,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,1365 +465,1321 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="62.5" style="2" customWidth="1"/>
+    <col min="2" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1">
         <v>2005</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>2006</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>2007</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>2008</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>2009</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>2010</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>2011</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>2012</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>2013</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>2014</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>2016</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>2017</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>2018</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>2019</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>2020</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>2021</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="S1" s="1">
         <v>2022</v>
       </c>
-      <c r="S1" s="1" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1. Doanh thu bán hàng và cung cấp dịch vụ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
         <v>1254718002391</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5">
         <v>1801913350652</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5">
         <v>2395503437664</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="5">
         <v>4204235943563</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="5">
         <v>10290503190514</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="5">
         <v>13798302596222</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="5">
         <v>18038055458855</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="5">
         <v>6777869795148</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="5">
         <v>8973965897995</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="5">
         <v>9297810872565</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="5">
         <v>8615363154443</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="5">
         <v>11049024104831</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="5">
         <v>14678799605798</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="5">
         <v>17144251446632</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="5">
         <v>17681913026177</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="5">
         <v>19735646137250</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="6">
+        <v>33481608954953</v>
+      </c>
+      <c r="S2" s="6">
         <v>34211128942240</v>
       </c>
-      <c r="S2" t="n">
-        <v>33481608954953</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2. Các khoản giảm trừ doanh thu</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>8267642399</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5">
         <v>13123231718</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5">
         <v>15868261734</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5">
         <v>25386760979</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5">
         <v>34203428628</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5">
         <v>45921930526</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="5">
         <v>74214987083</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="5">
         <v>61026428725</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="5">
         <v>59783311660</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="5">
         <v>98592775013</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="5">
         <v>50772664226</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="5">
         <v>72187214867</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="5">
         <v>107663860948</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="5">
         <v>143570366109</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="5">
         <v>171124375178</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="5">
         <v>188587772416</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="6">
+        <v>344679758524</v>
+      </c>
+      <c r="S3" s="6">
         <v>334674383087</v>
       </c>
-      <c r="S3" t="n">
-        <v>344679758524</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>3. Doanh thu thuần về bán hàng và cung cấp dịch vụ (10 = 01 - 02)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
         <v>1246450359992</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="5">
         <v>1788790118934</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5">
         <v>2379635175930</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="5">
         <v>4178849182584</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5">
         <v>10256299761886</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5">
         <v>13752380665696</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="5">
         <v>17963840471772</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="5">
         <v>6716843366423</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="5">
         <v>8914182586335</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="5">
         <v>9199218097552</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="5">
         <v>8564590490217</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="5">
         <v>10976836889964</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="5">
         <v>14571135744850</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="5">
         <v>17000681080523</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="5">
         <v>17510788650999</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="5">
         <v>19547058364834</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="6">
+        <v>33136929196429</v>
+      </c>
+      <c r="S4" s="6">
         <v>33876454559153</v>
       </c>
-      <c r="S4" t="n">
-        <v>33136929196429</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>4. Giá vốn hàng bán</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
         <v>1137160671694</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5">
         <v>1618936674276</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5">
         <v>2177499663010</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="5">
         <v>3828808852408</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5">
         <v>9755444424582</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5">
         <v>13210528300660</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="5">
         <v>17225520872828</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="5">
         <v>6118336274620</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="5">
         <v>8244494727893</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="5">
         <v>8309982541638</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="5">
         <v>7153297291319</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="5">
         <v>9064872939048</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="5">
         <v>11792052183391</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="5">
         <v>13539967588262</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="5">
         <v>14076055770112</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="5">
         <v>15948760134458</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="6">
+        <v>27078338249235</v>
+      </c>
+      <c r="S5" s="6">
         <v>27949348024381</v>
       </c>
-      <c r="S5" t="n">
-        <v>27078338249235</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ(20=10-11)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
         <v>109289688298</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="5">
         <v>169853444658</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="5">
         <v>202135512920</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5">
         <v>350040330176</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5">
         <v>500855337304</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5">
         <v>541852365036</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="5">
         <v>738319598944</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="5">
         <v>598507091803</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="5">
         <v>669687858442</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="5">
         <v>889235555914</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="5">
         <v>1411293198898</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="5">
         <v>1911963950916</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="5">
         <v>2779083561459</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="5">
         <v>3460713492261</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="5">
         <v>3434732880887</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="5">
         <v>3598298230376</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="6">
+        <v>6058590947194</v>
+      </c>
+      <c r="S6" s="6">
         <v>5927106534772</v>
       </c>
-      <c r="S6" t="n">
-        <v>6058590947194</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>6. Doanh thu hoạt động tài chính</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
         <v>7218540159</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="5">
         <v>46841386617</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5">
         <v>54519052631</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5">
         <v>56899530012</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5">
         <v>74014998344</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5">
         <v>64650321180</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="5">
         <v>64754928074</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="5">
         <v>120569293310</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="5">
         <v>23797867875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="5">
         <v>18739496430</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="5">
         <v>5265793888</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="5">
         <v>8794872100</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="5">
         <v>6846027091</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="5">
         <v>16820020734</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="5">
         <v>2368958316</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="5">
         <v>16326114795</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="6">
+        <v>97825547538</v>
+      </c>
+      <c r="S7" s="6">
         <v>54036974170</v>
       </c>
-      <c r="S7" t="n">
-        <v>97825547538</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>7. Chi phí tài chính</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
         <v>13101209357</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="5">
         <v>16539934743</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="5">
         <v>23670855391</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="5">
         <v>32978648561</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
         <v>101497808442</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="5">
         <v>83525727307</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="5">
         <v>79682197799</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="5">
         <v>181560472623</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="5">
         <v>56475629564</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="5">
         <v>66345864211</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="5">
         <v>133678118497</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="5">
         <v>161541087492</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="5">
         <v>118252734395</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="6">
+        <v>142580680640</v>
+      </c>
+      <c r="S8" s="6">
         <v>141471203463</v>
       </c>
-      <c r="S8" t="n">
-        <v>142580680640</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>- Trong đó: Chi phí lãi vay</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
         <v>13101209357</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="5">
         <v>16539934743</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5">
         <v>23670855391</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5">
         <v>32978648561</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
         <v>101497808442</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="5">
         <v>83525727307</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="5">
         <v>79682197799</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="5">
         <v>73196281440</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="5">
         <v>54981032499</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="5">
         <v>61109042390</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="5">
         <v>115367610418</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="5">
         <v>154416694276</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="5">
         <v>104380274160</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="6">
+        <v>118568804103</v>
+      </c>
+      <c r="S9" s="6">
         <v>94143431408</v>
       </c>
-      <c r="S9" t="n">
-        <v>118568804103</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>8. Phần lãi lỗ trong công ty liên doanh, liên kết</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5">
         <v>-913939311</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>9. Chi phí bán hàng</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>51673221260</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="5">
         <v>73478012889</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5">
         <v>85838569417</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5">
         <v>140191777752</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5">
         <v>185512985806</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5">
         <v>243304931356</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="5">
         <v>289530963640</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="5">
         <v>267972724506</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="5">
         <v>262496218357</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="5">
         <v>354954031945</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="5">
         <v>553623183284</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="5">
         <v>774978169326</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="5">
         <v>1170069069426</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="5">
         <v>1361807553507</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="5">
         <v>1420855653447</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="5">
         <v>1687654952494</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="6">
+        <v>2835769469802</v>
+      </c>
+      <c r="S11" s="6">
         <v>2828208644376</v>
       </c>
-      <c r="S11" t="n">
-        <v>2835769469802</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>10. Chi phí quản lý doanh nghiệp</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <v>9921072660</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="5">
         <v>12728572577</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5">
         <v>22535447136</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5">
         <v>47245266782</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5">
         <v>61079143055</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5">
         <v>79166636200</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="5">
         <v>98126294532</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="5">
         <v>89631912787</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="5">
         <v>113373916451</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="5">
         <v>129618733552</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="5">
         <v>133281909539</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="5">
         <v>187936351549</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="5">
         <v>345868153940</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="5">
         <v>475831697930</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="5">
         <v>505572794605</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="5">
         <v>501819303928</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="6">
+        <v>693934934718</v>
+      </c>
+      <c r="S12" s="6">
         <v>673996996684</v>
       </c>
-      <c r="S12" t="n">
-        <v>693934934718</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>11. Lợi nhuận thuần từ hoạt động kinh doanh{30=20+(21-22) + 24 - (25+26)}</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
         <v>25026833747</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="5">
         <v>27413066110</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5">
         <v>122738600850</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5">
         <v>156265224695</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5">
         <v>252470814856</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5">
         <v>223640817189</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="5">
         <v>289882576295</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="5">
         <v>270066053392</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="5">
         <v>232644910693</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="5">
         <v>333147632622</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="5">
         <v>547179488029</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="5">
         <v>901368672577</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="5">
         <v>1203646500973</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="5">
         <v>1506216143061</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="5">
         <v>1349132303659</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="5">
         <v>1306897354354</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="6">
+        <v>2484131409572</v>
+      </c>
+      <c r="S13" s="6">
         <v>2337466664419</v>
       </c>
-      <c r="S13" t="n">
-        <v>2484131409572</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>12. Thu nhập khác</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
         <v>19406826548</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="5">
         <v>7091706676</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5">
         <v>7959882077</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="5">
         <v>11167192255</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5">
         <v>12101550024</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5">
         <v>30711526150</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="5">
         <v>19224929719</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="5">
         <v>49775091650</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="5">
         <v>3181797660</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="5">
         <v>2668838792</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="5">
         <v>47317460372</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="5">
         <v>7394867935</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="5">
         <v>4637809502</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="5">
         <v>4760923089</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="5">
         <v>5485848150</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="5">
         <v>8861354013</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="6">
+        <v>11846230257</v>
+      </c>
+      <c r="S14" s="6">
         <v>8582642521</v>
       </c>
-      <c r="S14" t="n">
-        <v>11846230257</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>13. Chi phí khác</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
         <v>474685998</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="5">
         <v>332275385</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5">
         <v>148242244</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5">
         <v>922253466</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="5">
         <v>1039248353</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5">
         <v>11902840151</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="5">
         <v>1607851780</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="5">
         <v>20041344299</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="5">
         <v>2239943652</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="5">
         <v>1586537533</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="5">
         <v>3868981822</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="5">
         <v>1384144655</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="5">
         <v>2734037354</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="5">
         <v>4264680599</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="5">
         <v>8637683094</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="5">
         <v>36528186336</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="6">
+        <v>7217637455</v>
+      </c>
+      <c r="S15" s="6">
         <v>33721752227</v>
       </c>
-      <c r="S15" t="n">
-        <v>7217637455</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>14. Lợi nhuận khác(40=31-32)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
         <v>18932140586</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="5">
         <v>6759431291</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5">
         <v>7811639833</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="5">
         <v>10244938789</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5">
         <v>11062301671</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5">
         <v>18808685999</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="5">
         <v>17617077939</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="5">
         <v>29733747351</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="5">
         <v>941854008</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="5">
         <v>1082301259</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="5">
         <v>43448478550</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="5">
         <v>6010723280</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="5">
         <v>1903772148</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="5">
         <v>496242490</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="5">
         <v>-3151834944</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="5">
         <v>-27666832323</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="6">
+        <v>4628592802</v>
+      </c>
+      <c r="S16" s="6">
         <v>-25139109706</v>
       </c>
-      <c r="S16" t="n">
-        <v>4628592802</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>15. Tổng lợi nhuận kế toán trước thuế(50=30+40)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
         <v>43958974333</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="5">
         <v>34172497401</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5">
         <v>130550240683</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5">
         <v>166510163484</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="5">
         <v>274720370552</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5">
         <v>263892214917</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="5">
         <v>318165893441</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="5">
         <v>310093877728</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="5">
         <v>233007287265</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="5">
         <v>335033546883</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="5">
         <v>590627966579</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="5">
         <v>907379395857</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="5">
         <v>1205550273121</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="5">
         <v>1506712385551</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="5">
         <v>1345980468715</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="5">
         <v>1279230522031</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="6">
+        <v>2488760002374</v>
+      </c>
+      <c r="S17" s="6">
         <v>2312327554713</v>
       </c>
-      <c r="S17" t="n">
-        <v>2488760002374</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>16. Chi phí thuế TNDN hiện hành</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
         <v>4286337858</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5">
         <v>16528148816</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5">
         <v>35528877415</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="5">
         <v>54552299565</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5">
         <v>51946709715</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="5">
         <v>60742590596</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="5">
         <v>55247602683</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="5">
         <v>64190342200</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="5">
         <v>79455050132</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="5">
         <v>139964060336</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="5">
         <v>182038883247</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="5">
         <v>249485408708</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="5">
         <v>315667183537</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="5">
         <v>279422477414</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="5">
         <v>259673455974</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="6">
+        <v>517592806160</v>
+      </c>
+      <c r="S18" s="6">
         <v>521061271124</v>
       </c>
-      <c r="S18" t="n">
-        <v>517592806160</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>17. Chi phí thuế TNDN hoãn lại</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
         <v>-262645532</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5">
         <v>-990716764</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5">
         <v>-882536794</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5">
         <v>336191501</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5">
         <v>604159979</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="5">
         <v>-83304492</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="5">
         <v>437612552</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="5">
         <v>-220310692</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="5">
         <v>-293307944</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="5">
         <v>175856983</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="5">
         <v>484064550</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="5">
         <v>-3858482734</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="5">
         <v>-2879755229</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="5">
         <v>-2752113960</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="5">
         <v>-9485099588</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="6">
+        <v>68019079</v>
+      </c>
+      <c r="S19" s="6">
         <v>-19425559808</v>
       </c>
-      <c r="S19" t="n">
-        <v>68019079</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>18. Lợi nhuận sau thuế thu nhập doanh nghiệp(60=50-51-52)</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
         <v>43958974333</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5">
         <v>30148805075</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="5">
         <v>115012808631</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="5">
         <v>131863822863</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="5">
         <v>219831879486</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5">
         <v>211341345223</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="5">
         <v>257506607337</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="5">
         <v>254408662493</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="5">
         <v>169037255757</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="5">
         <v>255871804695</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="5">
         <v>450488049260</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="5">
         <v>724856448060</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="5">
         <v>959923347147</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="5">
         <v>1193924957243</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="5">
         <v>1069310105261</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="5">
         <v>1029042165645</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="6">
+        <v>1971099177135</v>
+      </c>
+      <c r="S20" s="6">
         <v>1810691843397</v>
       </c>
-      <c r="S20" t="n">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43958974333</v>
+      </c>
+      <c r="C21" s="5">
+        <v>30148805075</v>
+      </c>
+      <c r="D21" s="5">
+        <v>114381554250</v>
+      </c>
+      <c r="E21" s="5">
+        <v>125563575821</v>
+      </c>
+      <c r="F21" s="5">
+        <v>204491513039</v>
+      </c>
+      <c r="G21" s="5">
+        <v>212018177014</v>
+      </c>
+      <c r="H21" s="5">
+        <v>257105282358</v>
+      </c>
+      <c r="I21" s="5">
+        <v>254408662493</v>
+      </c>
+      <c r="J21" s="5">
+        <v>163171192453</v>
+      </c>
+      <c r="K21" s="5">
+        <v>242495305974</v>
+      </c>
+      <c r="L21" s="5">
+        <v>450488049260</v>
+      </c>
+      <c r="M21" s="5">
+        <v>724856448060</v>
+      </c>
+      <c r="N21" s="5">
+        <v>959923347147</v>
+      </c>
+      <c r="O21" s="5">
+        <v>1193924957243</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1069310105261</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1029042165645</v>
+      </c>
+      <c r="R21" s="6">
         <v>1971099177135</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>19. Lợi nhuận sau thuế công ty mẹ</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>43958974333</v>
-      </c>
-      <c r="C21" t="n">
-        <v>30148805075</v>
-      </c>
-      <c r="D21" t="n">
-        <v>114381554250</v>
-      </c>
-      <c r="E21" t="n">
-        <v>125563575821</v>
-      </c>
-      <c r="F21" t="n">
-        <v>204491513039</v>
-      </c>
-      <c r="G21" t="n">
-        <v>212018177014</v>
-      </c>
-      <c r="H21" t="n">
-        <v>257105282358</v>
-      </c>
-      <c r="I21" t="n">
-        <v>254408662493</v>
-      </c>
-      <c r="J21" t="n">
-        <v>163171192453</v>
-      </c>
-      <c r="K21" t="n">
-        <v>242495305974</v>
-      </c>
-      <c r="L21" t="n">
-        <v>450488049260</v>
-      </c>
-      <c r="M21" t="n">
-        <v>724856448060</v>
-      </c>
-      <c r="N21" t="n">
-        <v>959923347147</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1193924957243</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1069310105261</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1029042165645</v>
-      </c>
-      <c r="R21" t="n">
+      <c r="S21" s="6">
         <v>1810691843397</v>
       </c>
-      <c r="S21" t="n">
-        <v>1971099177135</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>20. Lợi nhuận sau thuế công ty mẹ không kiểm soát</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>21. Lãi cơ bản trên cổ phiếu(*)</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
         <v>80</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="5">
         <v>54816</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="5">
         <v>54650</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="5">
         <v>4185</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="5">
         <v>5112</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5">
         <v>3533</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="5">
         <v>4285</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="5">
         <v>3534</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="5">
         <v>2239</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="5">
         <v>3208</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="5">
         <v>4383</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="5">
         <v>6434</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="5">
         <v>6481</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="5">
         <v>4896</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="5">
         <v>4308</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="5">
         <v>4197</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="6">
+        <v>5436</v>
+      </c>
+      <c r="S23" s="6">
         <v>5223</v>
       </c>
-      <c r="S23" t="n">
-        <v>5436</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>22. Lãi suy giảm trên cổ phiếu (*)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
         <v>6481</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="5">
         <v>4896</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24" s="5">
         <v>4308</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="5">
         <v>4197</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" s="6"/>
+      <c r="S24" s="6">
         <v>5223</v>
       </c>
-      <c r="S24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pnj_incsta.xlsx
+++ b/pnj_incsta.xlsx
@@ -1,121 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dungnguyen/Desktop/Data Science off/Python Programming/3. Publication/DA3_finance_stock_scraping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E493F2D-47C7-6448-9D31-6E4E0E02AE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-33360" yWindow="1660" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>1. Doanh thu bán hàng và cung cấp dịch vụ</t>
-  </si>
-  <si>
-    <t>2. Các khoản giảm trừ doanh thu</t>
-  </si>
-  <si>
-    <t>3. Doanh thu thuần về bán hàng và cung cấp dịch vụ (10 = 01 - 02)</t>
-  </si>
-  <si>
-    <t>4. Giá vốn hàng bán</t>
-  </si>
-  <si>
-    <t>5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ(20=10-11)</t>
-  </si>
-  <si>
-    <t>6. Doanh thu hoạt động tài chính</t>
-  </si>
-  <si>
-    <t>7. Chi phí tài chính</t>
-  </si>
-  <si>
-    <t>- Trong đó: Chi phí lãi vay</t>
-  </si>
-  <si>
-    <t>8. Phần lãi lỗ trong công ty liên doanh, liên kết</t>
-  </si>
-  <si>
-    <t>9. Chi phí bán hàng</t>
-  </si>
-  <si>
-    <t>10. Chi phí quản lý doanh nghiệp</t>
-  </si>
-  <si>
-    <t>11. Lợi nhuận thuần từ hoạt động kinh doanh{30=20+(21-22) + 24 - (25+26)}</t>
-  </si>
-  <si>
-    <t>12. Thu nhập khác</t>
-  </si>
-  <si>
-    <t>13. Chi phí khác</t>
-  </si>
-  <si>
-    <t>14. Lợi nhuận khác(40=31-32)</t>
-  </si>
-  <si>
-    <t>15. Tổng lợi nhuận kế toán trước thuế(50=30+40)</t>
-  </si>
-  <si>
-    <t>16. Chi phí thuế TNDN hiện hành</t>
-  </si>
-  <si>
-    <t>17. Chi phí thuế TNDN hoãn lại</t>
-  </si>
-  <si>
-    <t>18. Lợi nhuận sau thuế thu nhập doanh nghiệp(60=50-51-52)</t>
-  </si>
-  <si>
-    <t>19. Lợi nhuận sau thuế công ty mẹ</t>
-  </si>
-  <si>
-    <t>20. Lợi nhuận sau thuế công ty mẹ không kiểm soát</t>
-  </si>
-  <si>
-    <t>21. Lãi cơ bản trên cổ phiếu(*)</t>
-  </si>
-  <si>
-    <t>22. Lãi suy giảm trên cổ phiếu (*)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$VND]\ #,##0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,54 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,1321 +420,1365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="62.5" style="2" customWidth="1"/>
-    <col min="2" max="17" width="0" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="27.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="S1" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="S1" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>1. Doanh thu bán hàng và cung cấp dịch vụ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1254718002391</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" t="n">
         <v>1801913350652</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" t="n">
         <v>2395503437664</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" t="n">
         <v>4204235943563</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" t="n">
         <v>10290503190514</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" t="n">
         <v>13798302596222</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" t="n">
         <v>18038055458855</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" t="n">
         <v>6777869795148</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" t="n">
         <v>8973965897995</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" t="n">
         <v>9297810872565</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" t="n">
         <v>8615363154443</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" t="n">
         <v>11049024104831</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" t="n">
         <v>14678799605798</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" t="n">
         <v>17144251446632</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" t="n">
         <v>17681913026177</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" t="n">
         <v>19735646137250</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" t="n">
+        <v>34211128942240</v>
+      </c>
+      <c r="S2" t="n">
         <v>33481608954953</v>
       </c>
-      <c r="S2" s="6">
-        <v>34211128942240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2. Các khoản giảm trừ doanh thu</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>8267642399</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" t="n">
         <v>13123231718</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" t="n">
         <v>15868261734</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" t="n">
         <v>25386760979</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" t="n">
         <v>34203428628</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" t="n">
         <v>45921930526</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" t="n">
         <v>74214987083</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" t="n">
         <v>61026428725</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" t="n">
         <v>59783311660</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" t="n">
         <v>98592775013</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" t="n">
         <v>50772664226</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" t="n">
         <v>72187214867</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" t="n">
         <v>107663860948</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" t="n">
         <v>143570366109</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" t="n">
         <v>171124375178</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" t="n">
         <v>188587772416</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" t="n">
+        <v>334674383087</v>
+      </c>
+      <c r="S3" t="n">
         <v>344679758524</v>
       </c>
-      <c r="S3" s="6">
-        <v>334674383087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3. Doanh thu thuần về bán hàng và cung cấp dịch vụ (10 = 01 - 02)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1246450359992</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" t="n">
         <v>1788790118934</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" t="n">
         <v>2379635175930</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" t="n">
         <v>4178849182584</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" t="n">
         <v>10256299761886</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" t="n">
         <v>13752380665696</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" t="n">
         <v>17963840471772</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" t="n">
         <v>6716843366423</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" t="n">
         <v>8914182586335</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" t="n">
         <v>9199218097552</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" t="n">
         <v>8564590490217</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" t="n">
         <v>10976836889964</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" t="n">
         <v>14571135744850</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" t="n">
         <v>17000681080523</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" t="n">
         <v>17510788650999</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" t="n">
         <v>19547058364834</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" t="n">
+        <v>33876454559153</v>
+      </c>
+      <c r="S4" t="n">
         <v>33136929196429</v>
       </c>
-      <c r="S4" s="6">
-        <v>33876454559153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4. Giá vốn hàng bán</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>1137160671694</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" t="n">
         <v>1618936674276</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" t="n">
         <v>2177499663010</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" t="n">
         <v>3828808852408</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" t="n">
         <v>9755444424582</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" t="n">
         <v>13210528300660</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" t="n">
         <v>17225520872828</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" t="n">
         <v>6118336274620</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" t="n">
         <v>8244494727893</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" t="n">
         <v>8309982541638</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" t="n">
         <v>7153297291319</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" t="n">
         <v>9064872939048</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" t="n">
         <v>11792052183391</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" t="n">
         <v>13539967588262</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" t="n">
         <v>14076055770112</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" t="n">
         <v>15948760134458</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" t="n">
+        <v>27949348024381</v>
+      </c>
+      <c r="S5" t="n">
         <v>27078338249235</v>
       </c>
-      <c r="S5" s="6">
-        <v>27949348024381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5. Lợi nhuận gộp về bán hàng và cung cấp dịch vụ(20=10-11)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>109289688298</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" t="n">
         <v>169853444658</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" t="n">
         <v>202135512920</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" t="n">
         <v>350040330176</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" t="n">
         <v>500855337304</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" t="n">
         <v>541852365036</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" t="n">
         <v>738319598944</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" t="n">
         <v>598507091803</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" t="n">
         <v>669687858442</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" t="n">
         <v>889235555914</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" t="n">
         <v>1411293198898</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" t="n">
         <v>1911963950916</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" t="n">
         <v>2779083561459</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" t="n">
         <v>3460713492261</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" t="n">
         <v>3434732880887</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" t="n">
         <v>3598298230376</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" t="n">
+        <v>5927106534772</v>
+      </c>
+      <c r="S6" t="n">
         <v>6058590947194</v>
       </c>
-      <c r="S6" s="6">
-        <v>5927106534772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6. Doanh thu hoạt động tài chính</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>7218540159</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" t="n">
         <v>46841386617</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" t="n">
         <v>54519052631</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" t="n">
         <v>56899530012</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" t="n">
         <v>74014998344</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" t="n">
         <v>64650321180</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" t="n">
         <v>64754928074</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" t="n">
         <v>120569293310</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" t="n">
         <v>23797867875</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" t="n">
         <v>18739496430</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" t="n">
         <v>5265793888</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" t="n">
         <v>8794872100</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" t="n">
         <v>6846027091</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" t="n">
         <v>16820020734</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" t="n">
         <v>2368958316</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" t="n">
         <v>16326114795</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" t="n">
+        <v>54036974170</v>
+      </c>
+      <c r="S7" t="n">
         <v>97825547538</v>
       </c>
-      <c r="S7" s="6">
-        <v>54036974170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7. Chi phí tài chính</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>13101209357</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" t="n">
         <v>16539934743</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" t="n">
         <v>23670855391</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" t="n">
         <v>32978648561</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>101497808442</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" t="n">
         <v>83525727307</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" t="n">
         <v>79682197799</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" t="n">
         <v>181560472623</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" t="n">
         <v>56475629564</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" t="n">
         <v>66345864211</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" t="n">
         <v>133678118497</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" t="n">
         <v>161541087492</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" t="n">
         <v>118252734395</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" t="n">
+        <v>141471203463</v>
+      </c>
+      <c r="S8" t="n">
         <v>142580680640</v>
       </c>
-      <c r="S8" s="6">
-        <v>141471203463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>- Trong đó: Chi phí lãi vay</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>13101209357</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" t="n">
         <v>16539934743</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" t="n">
         <v>23670855391</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" t="n">
         <v>32978648561</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
         <v>101497808442</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" t="n">
         <v>83525727307</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" t="n">
         <v>79682197799</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" t="n">
         <v>73196281440</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" t="n">
         <v>54981032499</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" t="n">
         <v>61109042390</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" t="n">
         <v>115367610418</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" t="n">
         <v>154416694276</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" t="n">
         <v>104380274160</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" t="n">
+        <v>94143431408</v>
+      </c>
+      <c r="S9" t="n">
         <v>118568804103</v>
       </c>
-      <c r="S9" s="6">
-        <v>94143431408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>8. Phần lãi lỗ trong công ty liên doanh, liên kết</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>-913939311</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9. Chi phí bán hàng</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>51673221260</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" t="n">
         <v>73478012889</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" t="n">
         <v>85838569417</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" t="n">
         <v>140191777752</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" t="n">
         <v>185512985806</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" t="n">
         <v>243304931356</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" t="n">
         <v>289530963640</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" t="n">
         <v>267972724506</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" t="n">
         <v>262496218357</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" t="n">
         <v>354954031945</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" t="n">
         <v>553623183284</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" t="n">
         <v>774978169326</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" t="n">
         <v>1170069069426</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" t="n">
         <v>1361807553507</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" t="n">
         <v>1420855653447</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" t="n">
         <v>1687654952494</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" t="n">
+        <v>2828208644376</v>
+      </c>
+      <c r="S11" t="n">
         <v>2835769469802</v>
       </c>
-      <c r="S11" s="6">
-        <v>2828208644376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10. Chi phí quản lý doanh nghiệp</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>9921072660</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" t="n">
         <v>12728572577</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" t="n">
         <v>22535447136</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" t="n">
         <v>47245266782</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" t="n">
         <v>61079143055</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" t="n">
         <v>79166636200</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" t="n">
         <v>98126294532</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" t="n">
         <v>89631912787</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" t="n">
         <v>113373916451</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" t="n">
         <v>129618733552</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" t="n">
         <v>133281909539</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" t="n">
         <v>187936351549</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" t="n">
         <v>345868153940</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" t="n">
         <v>475831697930</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" t="n">
         <v>505572794605</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" t="n">
         <v>501819303928</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" t="n">
+        <v>673996996684</v>
+      </c>
+      <c r="S12" t="n">
         <v>693934934718</v>
       </c>
-      <c r="S12" s="6">
-        <v>673996996684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>11. Lợi nhuận thuần từ hoạt động kinh doanh{30=20+(21-22) + 24 - (25+26)}</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>25026833747</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" t="n">
         <v>27413066110</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" t="n">
         <v>122738600850</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" t="n">
         <v>156265224695</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" t="n">
         <v>252470814856</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" t="n">
         <v>223640817189</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" t="n">
         <v>289882576295</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" t="n">
         <v>270066053392</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" t="n">
         <v>232644910693</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" t="n">
         <v>333147632622</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" t="n">
         <v>547179488029</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" t="n">
         <v>901368672577</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" t="n">
         <v>1203646500973</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" t="n">
         <v>1506216143061</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" t="n">
         <v>1349132303659</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" t="n">
         <v>1306897354354</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" t="n">
+        <v>2337466664419</v>
+      </c>
+      <c r="S13" t="n">
         <v>2484131409572</v>
       </c>
-      <c r="S13" s="6">
-        <v>2337466664419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>12. Thu nhập khác</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>19406826548</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" t="n">
         <v>7091706676</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" t="n">
         <v>7959882077</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" t="n">
         <v>11167192255</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" t="n">
         <v>12101550024</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" t="n">
         <v>30711526150</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" t="n">
         <v>19224929719</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" t="n">
         <v>49775091650</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" t="n">
         <v>3181797660</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" t="n">
         <v>2668838792</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" t="n">
         <v>47317460372</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" t="n">
         <v>7394867935</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" t="n">
         <v>4637809502</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" t="n">
         <v>4760923089</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" t="n">
         <v>5485848150</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" t="n">
         <v>8861354013</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" t="n">
+        <v>8582642521</v>
+      </c>
+      <c r="S14" t="n">
         <v>11846230257</v>
       </c>
-      <c r="S14" s="6">
-        <v>8582642521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>13. Chi phí khác</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>474685998</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" t="n">
         <v>332275385</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" t="n">
         <v>148242244</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" t="n">
         <v>922253466</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" t="n">
         <v>1039248353</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" t="n">
         <v>11902840151</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" t="n">
         <v>1607851780</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" t="n">
         <v>20041344299</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" t="n">
         <v>2239943652</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" t="n">
         <v>1586537533</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" t="n">
         <v>3868981822</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" t="n">
         <v>1384144655</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" t="n">
         <v>2734037354</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" t="n">
         <v>4264680599</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" t="n">
         <v>8637683094</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" t="n">
         <v>36528186336</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" t="n">
+        <v>33721752227</v>
+      </c>
+      <c r="S15" t="n">
         <v>7217637455</v>
       </c>
-      <c r="S15" s="6">
-        <v>33721752227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5">
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>14. Lợi nhuận khác(40=31-32)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>18932140586</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" t="n">
         <v>6759431291</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" t="n">
         <v>7811639833</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" t="n">
         <v>10244938789</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" t="n">
         <v>11062301671</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" t="n">
         <v>18808685999</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" t="n">
         <v>17617077939</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" t="n">
         <v>29733747351</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" t="n">
         <v>941854008</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" t="n">
         <v>1082301259</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" t="n">
         <v>43448478550</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" t="n">
         <v>6010723280</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" t="n">
         <v>1903772148</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" t="n">
         <v>496242490</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" t="n">
         <v>-3151834944</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" t="n">
         <v>-27666832323</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" t="n">
+        <v>-25139109706</v>
+      </c>
+      <c r="S16" t="n">
         <v>4628592802</v>
       </c>
-      <c r="S16" s="6">
-        <v>-25139109706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5">
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>15. Tổng lợi nhuận kế toán trước thuế(50=30+40)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>43958974333</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" t="n">
         <v>34172497401</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" t="n">
         <v>130550240683</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" t="n">
         <v>166510163484</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" t="n">
         <v>274720370552</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" t="n">
         <v>263892214917</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" t="n">
         <v>318165893441</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" t="n">
         <v>310093877728</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" t="n">
         <v>233007287265</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" t="n">
         <v>335033546883</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" t="n">
         <v>590627966579</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" t="n">
         <v>907379395857</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" t="n">
         <v>1205550273121</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" t="n">
         <v>1506712385551</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" t="n">
         <v>1345980468715</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" t="n">
         <v>1279230522031</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" t="n">
+        <v>2312327554713</v>
+      </c>
+      <c r="S17" t="n">
         <v>2488760002374</v>
       </c>
-      <c r="S17" s="6">
-        <v>2312327554713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>16. Chi phí thuế TNDN hiện hành</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>4286337858</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" t="n">
         <v>16528148816</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" t="n">
         <v>35528877415</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" t="n">
         <v>54552299565</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" t="n">
         <v>51946709715</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" t="n">
         <v>60742590596</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" t="n">
         <v>55247602683</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" t="n">
         <v>64190342200</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" t="n">
         <v>79455050132</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" t="n">
         <v>139964060336</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" t="n">
         <v>182038883247</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" t="n">
         <v>249485408708</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" t="n">
         <v>315667183537</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" t="n">
         <v>279422477414</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" t="n">
         <v>259673455974</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" t="n">
+        <v>521061271124</v>
+      </c>
+      <c r="S18" t="n">
         <v>517592806160</v>
       </c>
-      <c r="S18" s="6">
-        <v>521061271124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>17. Chi phí thuế TNDN hoãn lại</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>-262645532</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" t="n">
         <v>-990716764</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" t="n">
         <v>-882536794</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" t="n">
         <v>336191501</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" t="n">
         <v>604159979</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" t="n">
         <v>-83304492</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" t="n">
         <v>437612552</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" t="n">
         <v>-220310692</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" t="n">
         <v>-293307944</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" t="n">
         <v>175856983</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" t="n">
         <v>484064550</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" t="n">
         <v>-3858482734</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" t="n">
         <v>-2879755229</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" t="n">
         <v>-2752113960</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" t="n">
         <v>-9485099588</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" t="n">
+        <v>-19425559808</v>
+      </c>
+      <c r="S19" t="n">
         <v>68019079</v>
       </c>
-      <c r="S19" s="6">
-        <v>-19425559808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5">
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>18. Lợi nhuận sau thuế thu nhập doanh nghiệp(60=50-51-52)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>43958974333</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" t="n">
         <v>30148805075</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" t="n">
         <v>115012808631</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" t="n">
         <v>131863822863</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" t="n">
         <v>219831879486</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" t="n">
         <v>211341345223</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" t="n">
         <v>257506607337</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" t="n">
         <v>254408662493</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" t="n">
         <v>169037255757</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" t="n">
         <v>255871804695</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" t="n">
         <v>450488049260</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" t="n">
         <v>724856448060</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" t="n">
         <v>959923347147</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" t="n">
         <v>1193924957243</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" t="n">
         <v>1069310105261</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" t="n">
         <v>1029042165645</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20" t="n">
+        <v>1810691843397</v>
+      </c>
+      <c r="S20" t="n">
         <v>1971099177135</v>
       </c>
-      <c r="S20" s="6">
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>19. Lợi nhuận sau thuế công ty mẹ</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>43958974333</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30148805075</v>
+      </c>
+      <c r="D21" t="n">
+        <v>114381554250</v>
+      </c>
+      <c r="E21" t="n">
+        <v>125563575821</v>
+      </c>
+      <c r="F21" t="n">
+        <v>204491513039</v>
+      </c>
+      <c r="G21" t="n">
+        <v>212018177014</v>
+      </c>
+      <c r="H21" t="n">
+        <v>257105282358</v>
+      </c>
+      <c r="I21" t="n">
+        <v>254408662493</v>
+      </c>
+      <c r="J21" t="n">
+        <v>163171192453</v>
+      </c>
+      <c r="K21" t="n">
+        <v>242495305974</v>
+      </c>
+      <c r="L21" t="n">
+        <v>450488049260</v>
+      </c>
+      <c r="M21" t="n">
+        <v>724856448060</v>
+      </c>
+      <c r="N21" t="n">
+        <v>959923347147</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1193924957243</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1069310105261</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1029042165645</v>
+      </c>
+      <c r="R21" t="n">
         <v>1810691843397</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5">
-        <v>43958974333</v>
-      </c>
-      <c r="C21" s="5">
-        <v>30148805075</v>
-      </c>
-      <c r="D21" s="5">
-        <v>114381554250</v>
-      </c>
-      <c r="E21" s="5">
-        <v>125563575821</v>
-      </c>
-      <c r="F21" s="5">
-        <v>204491513039</v>
-      </c>
-      <c r="G21" s="5">
-        <v>212018177014</v>
-      </c>
-      <c r="H21" s="5">
-        <v>257105282358</v>
-      </c>
-      <c r="I21" s="5">
-        <v>254408662493</v>
-      </c>
-      <c r="J21" s="5">
-        <v>163171192453</v>
-      </c>
-      <c r="K21" s="5">
-        <v>242495305974</v>
-      </c>
-      <c r="L21" s="5">
-        <v>450488049260</v>
-      </c>
-      <c r="M21" s="5">
-        <v>724856448060</v>
-      </c>
-      <c r="N21" s="5">
-        <v>959923347147</v>
-      </c>
-      <c r="O21" s="5">
-        <v>1193924957243</v>
-      </c>
-      <c r="P21" s="5">
-        <v>1069310105261</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>1029042165645</v>
-      </c>
-      <c r="R21" s="6">
+      <c r="S21" t="n">
         <v>1971099177135</v>
       </c>
-      <c r="S21" s="6">
-        <v>1810691843397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5">
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>20. Lợi nhuận sau thuế công ty mẹ không kiểm soát</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>21. Lãi cơ bản trên cổ phiếu(*)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>80</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" t="n">
         <v>54816</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" t="n">
         <v>54650</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" t="n">
         <v>4185</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" t="n">
         <v>5112</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" t="n">
         <v>3533</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" t="n">
         <v>4285</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" t="n">
         <v>3534</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" t="n">
         <v>2239</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" t="n">
         <v>3208</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" t="n">
         <v>4383</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" t="n">
         <v>6434</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" t="n">
         <v>6481</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" t="n">
         <v>4896</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" t="n">
         <v>4308</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" t="n">
         <v>4197</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" t="n">
+        <v>5223</v>
+      </c>
+      <c r="S23" t="n">
         <v>5436</v>
       </c>
-      <c r="S23" s="6">
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>22. Lãi suy giảm trên cổ phiếu (*)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>6481</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4896</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4308</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4197</v>
+      </c>
+      <c r="R24" t="n">
         <v>5223</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5">
-        <v>6481</v>
-      </c>
-      <c r="O24" s="5">
-        <v>4896</v>
-      </c>
-      <c r="P24" s="5">
-        <v>4308</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>4197</v>
-      </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6">
-        <v>5223</v>
-      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
